--- a/screenshots/performance.xlsx
+++ b/screenshots/performance.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Scattered Grid</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>Brute-force FPS</t>
+  </si>
+  <si>
+    <t>Performance(Scattered)</t>
+  </si>
+  <si>
+    <t>Performance(Coherent)</t>
+  </si>
+  <si>
+    <t>160000particles</t>
   </si>
 </sst>
 </file>
@@ -671,11 +680,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="386050064"/>
-        <c:axId val="386050848"/>
+        <c:axId val="419717776"/>
+        <c:axId val="419043672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="386050064"/>
+        <c:axId val="419717776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -718,7 +727,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="386050848"/>
+        <c:crossAx val="419043672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -726,7 +735,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="386050848"/>
+        <c:axId val="419043672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -777,7 +786,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="386050064"/>
+        <c:crossAx val="419717776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -791,7 +800,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1450,7 +1458,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="ruof" refreshedDate="42627.046810416665" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="1">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A7:J9" sheet="Sheet1"/>
+    <worksheetSource ref="A1:J3" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Scattered Grid" numFmtId="0">
@@ -1516,7 +1524,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A1:H4" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0">
@@ -2058,116 +2066,228 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:J10"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
+      <c r="B1">
         <v>5000</v>
       </c>
-      <c r="C7">
+      <c r="C1">
         <v>10000</v>
       </c>
-      <c r="D7">
+      <c r="D1">
         <v>20000</v>
       </c>
-      <c r="E7">
+      <c r="E1">
         <v>40000</v>
       </c>
-      <c r="F7">
+      <c r="F1">
         <v>80000</v>
       </c>
-      <c r="G7">
+      <c r="G1">
         <v>160000</v>
       </c>
-      <c r="H7">
+      <c r="H1">
         <v>320000</v>
       </c>
-      <c r="I7">
+      <c r="I1">
         <v>640000</v>
       </c>
-      <c r="J7">
+      <c r="J1">
         <v>1280000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>591.5</v>
+      </c>
+      <c r="C2">
+        <v>242.1</v>
+      </c>
+      <c r="D2">
+        <v>52.5</v>
+      </c>
+      <c r="E2">
+        <v>14.5</v>
+      </c>
+      <c r="F2">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1103.8</v>
+      </c>
+      <c r="E3">
+        <v>1072</v>
+      </c>
+      <c r="F3">
+        <v>662.1</v>
+      </c>
+      <c r="G3">
+        <v>344.7</v>
+      </c>
+      <c r="H3">
+        <v>121.5</v>
+      </c>
+      <c r="I3">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="J3">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>1069.0999999999999</v>
+      </c>
+      <c r="E4">
+        <v>1082.4000000000001</v>
+      </c>
+      <c r="F4">
+        <v>761.8</v>
+      </c>
+      <c r="G4">
+        <v>468.9</v>
+      </c>
+      <c r="H4">
+        <v>191.3</v>
+      </c>
+      <c r="I4">
+        <v>63.5</v>
+      </c>
+      <c r="J4">
+        <v>17.899999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>591.5</v>
-      </c>
-      <c r="C8">
-        <v>242.1</v>
-      </c>
-      <c r="D8">
-        <v>52.5</v>
-      </c>
-      <c r="E8">
-        <v>14.5</v>
-      </c>
-      <c r="F8">
-        <v>4.2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>1103.8</v>
-      </c>
-      <c r="E9">
-        <v>1072</v>
-      </c>
-      <c r="F9">
-        <v>662.1</v>
-      </c>
-      <c r="G9">
-        <v>344.7</v>
-      </c>
-      <c r="H9">
-        <v>121.5</v>
-      </c>
-      <c r="I9">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="J9">
-        <v>10.9</v>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10">
-        <v>1069.0999999999999</v>
-      </c>
-      <c r="E10">
-        <v>1082.4000000000001</v>
-      </c>
-      <c r="F10">
-        <v>761.8</v>
-      </c>
-      <c r="G10">
-        <v>468.9</v>
-      </c>
-      <c r="H10">
-        <v>191.3</v>
-      </c>
-      <c r="I10">
-        <v>63.5</v>
-      </c>
-      <c r="J10">
-        <v>17.899999999999999</v>
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>115.5</v>
+      </c>
+      <c r="C10">
+        <v>154.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>185.5</v>
+      </c>
+      <c r="C11">
+        <v>245.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>268.8</v>
+      </c>
+      <c r="C12">
+        <v>359.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>351.2</v>
+      </c>
+      <c r="C13">
+        <v>465.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>64</v>
+      </c>
+      <c r="B14">
+        <v>349.2</v>
+      </c>
+      <c r="C14">
+        <v>463.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>128</v>
+      </c>
+      <c r="B15">
+        <v>347.8</v>
+      </c>
+      <c r="C15">
+        <v>472.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>256</v>
+      </c>
+      <c r="B16">
+        <v>348.1</v>
+      </c>
+      <c r="C16">
+        <v>464.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>512</v>
+      </c>
+      <c r="B17">
+        <v>347.9</v>
+      </c>
+      <c r="C17">
+        <v>465.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1024</v>
+      </c>
+      <c r="B18">
+        <v>343.5</v>
+      </c>
+      <c r="C18">
+        <v>467.3</v>
       </c>
     </row>
   </sheetData>
